--- a/biology/Zoologie/Ctenidae/Ctenidae.xlsx
+++ b/biology/Zoologie/Ctenidae/Ctenidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ctenidae sont une famille d'araignées aranéomorphes[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ctenidae sont une famille d'araignées aranéomorphes.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, en Afrique, en Océanie et dans le sud de l'Asie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique, en Afrique, en Océanie et dans le sud de l'Asie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Ctenidae mesurent de 5 à 40 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Ctenidae mesurent de 5 à 40 mm.
 Ce sont des araignées errantes. Elles sont voisines des Miturgidae. Le genre Phoneutria, dangereux pour l'homme, est noté pour être venimeux.
 </t>
         </is>
@@ -574,9 +590,11 @@
           <t>Paléontologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette famille est connue depuis le Néogène[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille est connue depuis le Néogène.
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 18/05/2024)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 18/05/2024) :
 Acantheis Thorell, 1891
 Acanthoctenus Keyserling, 1877
 Africactenus Hyatt, 1954
@@ -657,7 +677,7 @@
 Tuticanus Simon, 1897
 Viracucha Lehtinen, 1967
 Wiedenmeyeria Schenkel, 1953
-Selon World Spider Catalog (version 23.5, 2023)[3] :
+Selon World Spider Catalog (version 23.5, 2023) :
 † Nanoctenus Wunderlich, 1988</t>
         </is>
       </c>
@@ -686,10 +706,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été décrite par Keyserling en 1877.
-Cette famille rassemble 610 espèces dans 49 genres actuels[1].
+Cette famille rassemble 610 espèces dans 49 genres actuels.
 </t>
         </is>
       </c>
@@ -718,7 +740,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Keyserling, 1877 : « Ueber amerikanische Spinnenarten der Unterordnung Citigradae. » Verhandlungen der kaiserlich-königlichen zoologisch-botanischen Gesellschaft in Wien, vol. 26, p. 609-708 (texte intégral).</t>
         </is>
